--- a/data/pca/factorExposure/factorExposure_2017-02-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-02-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01427813169048659</v>
+        <v>0.01128684689613312</v>
       </c>
       <c r="C2">
-        <v>-0.0192883570257561</v>
+        <v>-0.04044655261390889</v>
       </c>
       <c r="D2">
-        <v>-0.02330342453637909</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03108018329216004</v>
+      </c>
+      <c r="E2">
+        <v>0.05005371113195883</v>
+      </c>
+      <c r="F2">
+        <v>0.004385658600214912</v>
+      </c>
+      <c r="G2">
+        <v>0.1149199776550968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03037247472402767</v>
+        <v>0.03900259789828071</v>
       </c>
       <c r="C3">
-        <v>0.004290855107065168</v>
+        <v>-0.1006017084097855</v>
       </c>
       <c r="D3">
-        <v>-0.09585510970129175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01788047273520225</v>
+      </c>
+      <c r="E3">
+        <v>0.1000303610941037</v>
+      </c>
+      <c r="F3">
+        <v>0.01814925308579589</v>
+      </c>
+      <c r="G3">
+        <v>0.133040297754779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.03154507638598811</v>
+        <v>0.05498718519675701</v>
       </c>
       <c r="C4">
-        <v>-0.009233534021009699</v>
+        <v>-0.06716762138392733</v>
       </c>
       <c r="D4">
-        <v>-0.07867815477338726</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02540346481513855</v>
+      </c>
+      <c r="E4">
+        <v>0.041814047563292</v>
+      </c>
+      <c r="F4">
+        <v>0.0005441760947450386</v>
+      </c>
+      <c r="G4">
+        <v>0.1037786619995668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.006006891830067533</v>
+        <v>0.03471485769199141</v>
       </c>
       <c r="C6">
-        <v>-0.01347742945380173</v>
+        <v>-0.05108664897419322</v>
       </c>
       <c r="D6">
-        <v>-0.06137555525692773</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01799466084075283</v>
+      </c>
+      <c r="E6">
+        <v>0.04512556249491951</v>
+      </c>
+      <c r="F6">
+        <v>0.002949540843109043</v>
+      </c>
+      <c r="G6">
+        <v>0.08843370354867731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.003421943807231313</v>
+        <v>0.0207611383448777</v>
       </c>
       <c r="C7">
-        <v>-0.01351702285188375</v>
+        <v>-0.03826055277179725</v>
       </c>
       <c r="D7">
-        <v>-0.03729687202578506</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0147105441203969</v>
+      </c>
+      <c r="E7">
+        <v>0.01695109203599091</v>
+      </c>
+      <c r="F7">
+        <v>-0.00358600997350192</v>
+      </c>
+      <c r="G7">
+        <v>0.1274218798853005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.004478161627797482</v>
+        <v>0.003470526303245953</v>
       </c>
       <c r="C8">
-        <v>-0.002432954409849026</v>
+        <v>-0.02383564082095513</v>
       </c>
       <c r="D8">
-        <v>0.01105749135604406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004099726417275597</v>
+      </c>
+      <c r="E8">
+        <v>0.0325939330356104</v>
+      </c>
+      <c r="F8">
+        <v>0.002092804806464529</v>
+      </c>
+      <c r="G8">
+        <v>0.06995362257207641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.008861998769794831</v>
+        <v>0.03282290032453737</v>
       </c>
       <c r="C9">
-        <v>-0.01079408881835972</v>
+        <v>-0.0485019658417133</v>
       </c>
       <c r="D9">
-        <v>-0.04820122463613765</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01682488913481619</v>
+      </c>
+      <c r="E9">
+        <v>0.02858413281122438</v>
+      </c>
+      <c r="F9">
+        <v>-0.0005247700114995824</v>
+      </c>
+      <c r="G9">
+        <v>0.1059432508465512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1421605217387816</v>
+        <v>0.09926014049240896</v>
       </c>
       <c r="C10">
-        <v>0.06925620105931801</v>
+        <v>0.1822468604840701</v>
       </c>
       <c r="D10">
-        <v>0.1391352613980721</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01556305035165625</v>
+      </c>
+      <c r="E10">
+        <v>0.01874569156905644</v>
+      </c>
+      <c r="F10">
+        <v>0.02375273672811284</v>
+      </c>
+      <c r="G10">
+        <v>0.05427976430492806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.004206061046168251</v>
+        <v>0.03489063735985194</v>
       </c>
       <c r="C11">
-        <v>0.001412819884937576</v>
+        <v>-0.05169827944352134</v>
       </c>
       <c r="D11">
-        <v>-0.04418821363503945</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002878844339626378</v>
+      </c>
+      <c r="E11">
+        <v>0.02451804902866737</v>
+      </c>
+      <c r="F11">
+        <v>-0.01644078260079555</v>
+      </c>
+      <c r="G11">
+        <v>0.08955715722801254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.007604741964045585</v>
+        <v>0.03725572953762196</v>
       </c>
       <c r="C12">
-        <v>-0.00256146465845209</v>
+        <v>-0.04626029324293658</v>
       </c>
       <c r="D12">
-        <v>-0.0395769406554396</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006916896493477116</v>
+      </c>
+      <c r="E12">
+        <v>0.01286272509890311</v>
+      </c>
+      <c r="F12">
+        <v>-0.0020754209746925</v>
+      </c>
+      <c r="G12">
+        <v>0.08402905947188626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.009894611493435766</v>
+        <v>0.01320946519685864</v>
       </c>
       <c r="C13">
-        <v>-0.01890471581343132</v>
+        <v>-0.0415594144578495</v>
       </c>
       <c r="D13">
-        <v>-0.02463174675729071</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02776161125032153</v>
+      </c>
+      <c r="E13">
+        <v>0.04586138826484282</v>
+      </c>
+      <c r="F13">
+        <v>0.00805272303745231</v>
+      </c>
+      <c r="G13">
+        <v>0.1447522030782465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.002644103552703205</v>
+        <v>0.01030711633960259</v>
       </c>
       <c r="C14">
-        <v>-0.008960611844946955</v>
+        <v>-0.02696796116628042</v>
       </c>
       <c r="D14">
-        <v>-0.01672552872469294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0105017053184471</v>
+      </c>
+      <c r="E14">
+        <v>0.01051827117581381</v>
+      </c>
+      <c r="F14">
+        <v>0.007830246274754387</v>
+      </c>
+      <c r="G14">
+        <v>0.11322309606378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.005757393492138335</v>
+        <v>0.03377889241893425</v>
       </c>
       <c r="C16">
-        <v>0.001976662303003837</v>
+        <v>-0.04531239222258081</v>
       </c>
       <c r="D16">
-        <v>-0.03392860051367894</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002392265898253788</v>
+      </c>
+      <c r="E16">
+        <v>0.01983290381053195</v>
+      </c>
+      <c r="F16">
+        <v>0.002513431231953691</v>
+      </c>
+      <c r="G16">
+        <v>0.09257485048652424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.008473460228084111</v>
+        <v>0.0208861173909631</v>
       </c>
       <c r="C19">
-        <v>-0.01027103185328571</v>
+        <v>-0.04816764530417877</v>
       </c>
       <c r="D19">
-        <v>-0.03372474713344342</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02053527742684129</v>
+      </c>
+      <c r="E19">
+        <v>0.08953267262826493</v>
+      </c>
+      <c r="F19">
+        <v>0.003140836866882747</v>
+      </c>
+      <c r="G19">
+        <v>0.1457961785629453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0001598369350605963</v>
+        <v>0.01525338411469768</v>
       </c>
       <c r="C20">
-        <v>-0.01172225469413017</v>
+        <v>-0.04095872087903304</v>
       </c>
       <c r="D20">
-        <v>-0.02596394330949571</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01503117057190293</v>
+      </c>
+      <c r="E20">
+        <v>0.04083767400900982</v>
+      </c>
+      <c r="F20">
+        <v>0.02175360081919045</v>
+      </c>
+      <c r="G20">
+        <v>0.115981524013437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0042914568313439</v>
+        <v>0.01022013292038471</v>
       </c>
       <c r="C21">
-        <v>-0.01619635489624076</v>
+        <v>-0.03751089784090508</v>
       </c>
       <c r="D21">
-        <v>-0.002489474408857286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01998845160909631</v>
+      </c>
+      <c r="E21">
+        <v>0.05160379683147626</v>
+      </c>
+      <c r="F21">
+        <v>0.01354423361328232</v>
+      </c>
+      <c r="G21">
+        <v>0.1439885772867145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001047857100291973</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.007067923978192642</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002196305084287829</v>
+      </c>
+      <c r="E22">
+        <v>0.01724689752449419</v>
+      </c>
+      <c r="F22">
+        <v>-0.00582428346706971</v>
+      </c>
+      <c r="G22">
+        <v>0.003701443447352851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001051228346580425</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.007080857373177718</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002189808650953856</v>
+      </c>
+      <c r="E23">
+        <v>0.01718644198077074</v>
+      </c>
+      <c r="F23">
+        <v>-0.005788469579189116</v>
+      </c>
+      <c r="G23">
+        <v>0.003567545331114378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0004423297524382751</v>
+        <v>0.02900828962175166</v>
       </c>
       <c r="C24">
-        <v>-0.005714184099019791</v>
+        <v>-0.04837485167955594</v>
       </c>
       <c r="D24">
-        <v>-0.0365638153879458</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007509702253471726</v>
+      </c>
+      <c r="E24">
+        <v>0.01844331889895122</v>
+      </c>
+      <c r="F24">
+        <v>-0.007609023489337827</v>
+      </c>
+      <c r="G24">
+        <v>0.09200808149700911</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01439663763628297</v>
+        <v>0.04228918741928421</v>
       </c>
       <c r="C25">
-        <v>-0.004767747187471232</v>
+        <v>-0.05631040543464363</v>
       </c>
       <c r="D25">
-        <v>-0.05384191660233888</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01160742689364328</v>
+      </c>
+      <c r="E25">
+        <v>0.008941500561569109</v>
+      </c>
+      <c r="F25">
+        <v>-0.006244473591523556</v>
+      </c>
+      <c r="G25">
+        <v>0.09847156616956609</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.005048248120582643</v>
+        <v>0.01464870025114141</v>
       </c>
       <c r="C26">
-        <v>-0.02184654908127331</v>
+        <v>-0.01130789500121871</v>
       </c>
       <c r="D26">
-        <v>0.002485564664720882</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02420536877194797</v>
+      </c>
+      <c r="E26">
+        <v>0.00911424035776718</v>
+      </c>
+      <c r="F26">
+        <v>0.006770031316139833</v>
+      </c>
+      <c r="G26">
+        <v>0.08545475561471469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1914390634190251</v>
+        <v>0.1288820321833579</v>
       </c>
       <c r="C28">
-        <v>0.07691213100316575</v>
+        <v>0.2420700541226206</v>
       </c>
       <c r="D28">
-        <v>0.1713417663036864</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006890473266524737</v>
+      </c>
+      <c r="E28">
+        <v>0.003417118183000724</v>
+      </c>
+      <c r="F28">
+        <v>0.0214293461773908</v>
+      </c>
+      <c r="G28">
+        <v>0.05063672717759097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.0048758418353074</v>
+        <v>0.009633392521039058</v>
       </c>
       <c r="C29">
-        <v>-0.005118822048978812</v>
+        <v>-0.02291333682781399</v>
       </c>
       <c r="D29">
-        <v>-0.01853087986662068</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009412170099253296</v>
+      </c>
+      <c r="E29">
+        <v>0.003460613031433027</v>
+      </c>
+      <c r="F29">
+        <v>0.01285920093862657</v>
+      </c>
+      <c r="G29">
+        <v>0.1024854468894336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01430445712309138</v>
+        <v>0.03916304900623702</v>
       </c>
       <c r="C30">
-        <v>-0.01932838017432681</v>
+        <v>-0.06756770942823499</v>
       </c>
       <c r="D30">
-        <v>-0.09623968849181501</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0301878238596819</v>
+      </c>
+      <c r="E30">
+        <v>0.07437089486902565</v>
+      </c>
+      <c r="F30">
+        <v>-0.02716753786536273</v>
+      </c>
+      <c r="G30">
+        <v>0.1336050571138192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02169878308500721</v>
+        <v>0.05353009952611135</v>
       </c>
       <c r="C31">
-        <v>0.004841121355660337</v>
+        <v>-0.04010266226475479</v>
       </c>
       <c r="D31">
-        <v>-0.02419980562414195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003986399237454199</v>
+      </c>
+      <c r="E31">
+        <v>-0.003334407987757405</v>
+      </c>
+      <c r="F31">
+        <v>0.0366832351096402</v>
+      </c>
+      <c r="G31">
+        <v>0.0976154837543336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.005457618563703064</v>
+        <v>0.002130504026352977</v>
       </c>
       <c r="C32">
-        <v>0.0111033070501548</v>
+        <v>-0.0218604833954178</v>
       </c>
       <c r="D32">
-        <v>-0.009475685393767697</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.002094572952312642</v>
+      </c>
+      <c r="E32">
+        <v>0.04618101812843992</v>
+      </c>
+      <c r="F32">
+        <v>-0.03118559251548612</v>
+      </c>
+      <c r="G32">
+        <v>0.08275982642672612</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.002849233777286512</v>
+        <v>0.02739970442772809</v>
       </c>
       <c r="C33">
-        <v>-0.01081116134667359</v>
+        <v>-0.05050900719621747</v>
       </c>
       <c r="D33">
-        <v>-0.03538911267474063</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01705724945810357</v>
+      </c>
+      <c r="E33">
+        <v>0.05410697230295421</v>
+      </c>
+      <c r="F33">
+        <v>-0.006827064560053325</v>
+      </c>
+      <c r="G33">
+        <v>0.1629877507387683</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.01782834888715101</v>
+        <v>0.04069629818335524</v>
       </c>
       <c r="C34">
-        <v>0.01461799914061295</v>
+        <v>-0.05885548976992096</v>
       </c>
       <c r="D34">
-        <v>-0.05488441791820807</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004022290990413028</v>
+      </c>
+      <c r="E34">
+        <v>0.01604483199841737</v>
+      </c>
+      <c r="F34">
+        <v>-0.01934564145999229</v>
+      </c>
+      <c r="G34">
+        <v>0.09277515561504883</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.007019108517493823</v>
+        <v>0.01621247076296734</v>
       </c>
       <c r="C36">
-        <v>-0.00845875760778105</v>
+        <v>-0.01010145845712864</v>
       </c>
       <c r="D36">
-        <v>0.003630247576356437</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01294391154886177</v>
+      </c>
+      <c r="E36">
+        <v>0.01056399659857725</v>
+      </c>
+      <c r="F36">
+        <v>0.008548871689592237</v>
+      </c>
+      <c r="G36">
+        <v>0.09379722369976949</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.01897129284555838</v>
+        <v>0.03243507940692016</v>
       </c>
       <c r="C38">
-        <v>0.0169513190589993</v>
+        <v>-0.0286533842749008</v>
       </c>
       <c r="D38">
-        <v>-0.02667137321307942</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007620911301343365</v>
+      </c>
+      <c r="E38">
+        <v>0.005072259372872258</v>
+      </c>
+      <c r="F38">
+        <v>0.01807964906896028</v>
+      </c>
+      <c r="G38">
+        <v>0.08720846399635479</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.01249454402640733</v>
+        <v>0.03650774169403443</v>
       </c>
       <c r="C39">
-        <v>-0.01474125588495219</v>
+        <v>-0.07884598107667745</v>
       </c>
       <c r="D39">
-        <v>-0.08639692305644682</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01248501322112919</v>
+      </c>
+      <c r="E39">
+        <v>0.03435506041573076</v>
+      </c>
+      <c r="F39">
+        <v>-0.01522558514060716</v>
+      </c>
+      <c r="G39">
+        <v>0.09531572333467581</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01333906212536167</v>
+        <v>0.01396909860058018</v>
       </c>
       <c r="C40">
-        <v>-0.005048849854964308</v>
+        <v>-0.03814096105634139</v>
       </c>
       <c r="D40">
-        <v>-0.02185320524451641</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01539215855023027</v>
+      </c>
+      <c r="E40">
+        <v>0.03646264814315277</v>
+      </c>
+      <c r="F40">
+        <v>0.01289252863330741</v>
+      </c>
+      <c r="G40">
+        <v>0.1266883655124685</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01152811149994238</v>
+        <v>0.0207758441512797</v>
       </c>
       <c r="C41">
-        <v>0.001539818990410986</v>
+        <v>-0.003314854944836097</v>
       </c>
       <c r="D41">
-        <v>0.01164657085801891</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.00489185716214804</v>
+      </c>
+      <c r="E41">
+        <v>0.009237897842594633</v>
+      </c>
+      <c r="F41">
+        <v>0.01600244888348596</v>
+      </c>
+      <c r="G41">
+        <v>0.08937277194596585</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.02291012755420814</v>
+        <v>0.005990746587906468</v>
       </c>
       <c r="C42">
-        <v>-0.08834267186072191</v>
+        <v>-0.02506976468051734</v>
       </c>
       <c r="D42">
-        <v>-0.07114549355106206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08627769939583621</v>
+      </c>
+      <c r="E42">
+        <v>0.0003574139706290741</v>
+      </c>
+      <c r="F42">
+        <v>0.03715461044925347</v>
+      </c>
+      <c r="G42">
+        <v>-0.02632103806854057</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01324818880147541</v>
+        <v>0.03593928773118485</v>
       </c>
       <c r="C43">
-        <v>0.00155777029333425</v>
+        <v>-0.01873579948578123</v>
       </c>
       <c r="D43">
-        <v>0.006389970326209678</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006202664779714629</v>
+      </c>
+      <c r="E43">
+        <v>0.0240390417690928</v>
+      </c>
+      <c r="F43">
+        <v>0.0114380283571336</v>
+      </c>
+      <c r="G43">
+        <v>0.1188771792492131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002911193366660588</v>
+        <v>0.0134574715111878</v>
       </c>
       <c r="C44">
-        <v>-0.004343130249420257</v>
+        <v>-0.05766913638550792</v>
       </c>
       <c r="D44">
-        <v>-0.04863804347076674</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.00749675584046755</v>
+      </c>
+      <c r="E44">
+        <v>0.03043739278815631</v>
+      </c>
+      <c r="F44">
+        <v>0.01466870992826741</v>
+      </c>
+      <c r="G44">
+        <v>0.1145198973234837</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-1.20936364104283e-05</v>
+        <v>0.00905728487671912</v>
       </c>
       <c r="C46">
-        <v>-0.0109405823950594</v>
+        <v>-0.01554914531481698</v>
       </c>
       <c r="D46">
-        <v>0.006410238267345752</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01266408809950183</v>
+      </c>
+      <c r="E46">
+        <v>-0.001982183589579659</v>
+      </c>
+      <c r="F46">
+        <v>0.01718751112876666</v>
+      </c>
+      <c r="G46">
+        <v>0.1087088116567265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0297898938654221</v>
+        <v>0.07947661979068675</v>
       </c>
       <c r="C47">
-        <v>0.01623670681982986</v>
+        <v>-0.07132038474418755</v>
       </c>
       <c r="D47">
-        <v>-0.06961316720375826</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005052253773335794</v>
+      </c>
+      <c r="E47">
+        <v>-0.01278906043792352</v>
+      </c>
+      <c r="F47">
+        <v>0.05059491594412013</v>
+      </c>
+      <c r="G47">
+        <v>0.08532729382338096</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.005189634054213453</v>
+        <v>0.01968128922081058</v>
       </c>
       <c r="C48">
-        <v>0.001108398648326143</v>
+        <v>-0.01257223287021409</v>
       </c>
       <c r="D48">
-        <v>-0.008830546989909711</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002382192947655897</v>
+      </c>
+      <c r="E48">
+        <v>0.004699185806803705</v>
+      </c>
+      <c r="F48">
+        <v>0.019717430734682</v>
+      </c>
+      <c r="G48">
+        <v>0.1030713297419469</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.04086554294810218</v>
+        <v>0.0747359629733233</v>
       </c>
       <c r="C50">
-        <v>0.01908183700088293</v>
+        <v>-0.0737167015097042</v>
       </c>
       <c r="D50">
-        <v>-0.05872223791922198</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002134647529283874</v>
+      </c>
+      <c r="E50">
+        <v>-0.0128875635425468</v>
+      </c>
+      <c r="F50">
+        <v>0.05118576744044657</v>
+      </c>
+      <c r="G50">
+        <v>0.09566418957738999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.001089096699484308</v>
+        <v>0.01270772854044681</v>
       </c>
       <c r="C51">
-        <v>-0.006042861345425427</v>
+        <v>-0.03759232865693538</v>
       </c>
       <c r="D51">
-        <v>-0.01887806137480755</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01138435122426437</v>
+      </c>
+      <c r="E51">
+        <v>0.03321130756485675</v>
+      </c>
+      <c r="F51">
+        <v>-0.01334865770590243</v>
+      </c>
+      <c r="G51">
+        <v>0.123333954115824</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.04656816572358841</v>
+        <v>0.0811420538360418</v>
       </c>
       <c r="C53">
-        <v>0.02187415738699715</v>
+        <v>-0.08456032059588928</v>
       </c>
       <c r="D53">
-        <v>-0.1032145253002357</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003672624457082347</v>
+      </c>
+      <c r="E53">
+        <v>-0.03439527297443178</v>
+      </c>
+      <c r="F53">
+        <v>0.05353606536777281</v>
+      </c>
+      <c r="G53">
+        <v>0.08875448025401882</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01510938170722544</v>
+        <v>0.03298241812541957</v>
       </c>
       <c r="C54">
-        <v>0.009909836187289765</v>
+        <v>-0.01861925320584632</v>
       </c>
       <c r="D54">
-        <v>0.004668783372520241</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.000978184902088528</v>
+      </c>
+      <c r="E54">
+        <v>0.01850008023419178</v>
+      </c>
+      <c r="F54">
+        <v>0.009475853664602574</v>
+      </c>
+      <c r="G54">
+        <v>0.1103452458531928</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0313738084873189</v>
+        <v>0.07382655089521069</v>
       </c>
       <c r="C55">
-        <v>0.01630590858451807</v>
+        <v>-0.0676516943980285</v>
       </c>
       <c r="D55">
-        <v>-0.08334498585653462</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005392225910111741</v>
+      </c>
+      <c r="E55">
+        <v>-0.03337078120362189</v>
+      </c>
+      <c r="F55">
+        <v>0.05224038552634783</v>
+      </c>
+      <c r="G55">
+        <v>0.06662745802512032</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.07458563498650493</v>
+        <v>0.1359068008530245</v>
       </c>
       <c r="C56">
-        <v>0.04008681538528954</v>
+        <v>-0.106875344444451</v>
       </c>
       <c r="D56">
-        <v>-0.1484447271801872</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01302573034528986</v>
+      </c>
+      <c r="E56">
+        <v>-0.04205666666904041</v>
+      </c>
+      <c r="F56">
+        <v>0.06703284635194806</v>
+      </c>
+      <c r="G56">
+        <v>0.04232142582081473</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01375029038577187</v>
+        <v>0.004282009839325646</v>
       </c>
       <c r="C57">
-        <v>-0.01795182385613737</v>
+        <v>-0.00591024310906166</v>
       </c>
       <c r="D57">
-        <v>-0.01980200949931818</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02281627613844287</v>
+      </c>
+      <c r="E57">
+        <v>0.02521971187203402</v>
+      </c>
+      <c r="F57">
+        <v>-0.0006151958414285992</v>
+      </c>
+      <c r="G57">
+        <v>0.01925617193176758</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.001857908373939356</v>
+        <v>0.0457858027447804</v>
       </c>
       <c r="C58">
-        <v>0.0003380659406641124</v>
+        <v>-0.04096404841677509</v>
       </c>
       <c r="D58">
-        <v>-0.07938889930273534</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02609295044505458</v>
+      </c>
+      <c r="E58">
+        <v>0.8120813077719692</v>
+      </c>
+      <c r="F58">
+        <v>0.4850674333101172</v>
+      </c>
+      <c r="G58">
+        <v>-0.2479194715086234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.2212940841202089</v>
+        <v>0.1600054041491608</v>
       </c>
       <c r="C59">
-        <v>0.0959937139173053</v>
+        <v>0.2070401348085689</v>
       </c>
       <c r="D59">
-        <v>0.1484400063126478</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01124079352839787</v>
+      </c>
+      <c r="E59">
+        <v>0.02459111439034625</v>
+      </c>
+      <c r="F59">
+        <v>0.00491807753691613</v>
+      </c>
+      <c r="G59">
+        <v>0.03641175330671904</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2392847757834755</v>
+        <v>0.2870339223739344</v>
       </c>
       <c r="C60">
-        <v>0.08755905482014199</v>
+        <v>-0.1146440609475352</v>
       </c>
       <c r="D60">
-        <v>-0.195270519483064</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0148275245094584</v>
+      </c>
+      <c r="E60">
+        <v>0.09206714964027263</v>
+      </c>
+      <c r="F60">
+        <v>-0.3251791841503729</v>
+      </c>
+      <c r="G60">
+        <v>-0.1608812235209127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>8.30645840614693e-08</v>
+        <v>0.03914038785884553</v>
       </c>
       <c r="C61">
-        <v>-0.002991991688990332</v>
+        <v>-0.06430553124956194</v>
       </c>
       <c r="D61">
-        <v>-0.06972466723867593</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.006276833497361852</v>
+      </c>
+      <c r="E61">
+        <v>0.03118178764683012</v>
+      </c>
+      <c r="F61">
+        <v>-0.01065410861550288</v>
+      </c>
+      <c r="G61">
+        <v>0.1013232586142253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.003808258343629354</v>
+        <v>0.01452520305836971</v>
       </c>
       <c r="C63">
-        <v>-0.006090055683257589</v>
+        <v>-0.03025033189624994</v>
       </c>
       <c r="D63">
-        <v>-0.02431287408419563</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008815912734687978</v>
+      </c>
+      <c r="E63">
+        <v>0.004768689756083788</v>
+      </c>
+      <c r="F63">
+        <v>0.01465051778323039</v>
+      </c>
+      <c r="G63">
+        <v>0.09455260314395764</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.0282069598598562</v>
+        <v>0.04912865680730844</v>
       </c>
       <c r="C64">
-        <v>0.007106451729167684</v>
+        <v>-0.04632211740867768</v>
       </c>
       <c r="D64">
-        <v>-0.04749463335333465</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006404546742814599</v>
+      </c>
+      <c r="E64">
+        <v>0.006136710008280066</v>
+      </c>
+      <c r="F64">
+        <v>-0.004623105747548481</v>
+      </c>
+      <c r="G64">
+        <v>0.1008103250776503</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.04060390530145313</v>
+        <v>0.07394477573502309</v>
       </c>
       <c r="C65">
-        <v>0.0003498849100207896</v>
+        <v>-0.06043976877144018</v>
       </c>
       <c r="D65">
-        <v>-0.1071169607198614</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01746967498881282</v>
+      </c>
+      <c r="E65">
+        <v>0.04919531362239443</v>
+      </c>
+      <c r="F65">
+        <v>-0.01314140191230831</v>
+      </c>
+      <c r="G65">
+        <v>0.04300338698167384</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.009966116885733841</v>
+        <v>0.04815185310531594</v>
       </c>
       <c r="C66">
-        <v>-0.01277063126775146</v>
+        <v>-0.1057584529090085</v>
       </c>
       <c r="D66">
-        <v>-0.1275689449222682</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01289839097139298</v>
+      </c>
+      <c r="E66">
+        <v>0.05340834139737795</v>
+      </c>
+      <c r="F66">
+        <v>-0.02459064940267587</v>
+      </c>
+      <c r="G66">
+        <v>0.1048363316249687</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04191142927295571</v>
+        <v>0.05561629512702099</v>
       </c>
       <c r="C67">
-        <v>0.02340073667949725</v>
+        <v>-0.03389827449512329</v>
       </c>
       <c r="D67">
-        <v>-0.04566188895023986</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006229806510024635</v>
+      </c>
+      <c r="E67">
+        <v>-0.006167545611893765</v>
+      </c>
+      <c r="F67">
+        <v>0.01440899124178814</v>
+      </c>
+      <c r="G67">
+        <v>0.07354460807692731</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.2214386172193364</v>
+        <v>0.1595978319155867</v>
       </c>
       <c r="C68">
-        <v>0.07467180867556261</v>
+        <v>0.2709696375049795</v>
       </c>
       <c r="D68">
-        <v>0.2062666162663429</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.004401863427962915</v>
+      </c>
+      <c r="E68">
+        <v>0.0004849055487005562</v>
+      </c>
+      <c r="F68">
+        <v>0.04440675505140184</v>
+      </c>
+      <c r="G68">
+        <v>0.02042434003186947</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03725018226839481</v>
+        <v>0.08209419916993711</v>
       </c>
       <c r="C69">
-        <v>0.02341205723575449</v>
+        <v>-0.0745688689993258</v>
       </c>
       <c r="D69">
-        <v>-0.072556244290095</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008983487124760723</v>
+      </c>
+      <c r="E69">
+        <v>-0.02575929552086311</v>
+      </c>
+      <c r="F69">
+        <v>0.02946379100320348</v>
+      </c>
+      <c r="G69">
+        <v>0.09833649091335508</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1921440473506037</v>
+        <v>0.1447847883599062</v>
       </c>
       <c r="C71">
-        <v>0.07376857400770091</v>
+        <v>0.2290120083931081</v>
       </c>
       <c r="D71">
-        <v>0.15150914963135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003141076201181087</v>
+      </c>
+      <c r="E71">
+        <v>0.03092296516449869</v>
+      </c>
+      <c r="F71">
+        <v>0.02883523661835614</v>
+      </c>
+      <c r="G71">
+        <v>0.06507341977208927</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.03190021762654226</v>
+        <v>0.08719094806185758</v>
       </c>
       <c r="C72">
-        <v>0.0221526707979075</v>
+        <v>-0.0696662150783481</v>
       </c>
       <c r="D72">
-        <v>-0.09110781443257289</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.00815079409824432</v>
+      </c>
+      <c r="E72">
+        <v>-0.005777741176893543</v>
+      </c>
+      <c r="F72">
+        <v>-0.03540466242016513</v>
+      </c>
+      <c r="G72">
+        <v>0.09355611939518094</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3140014263106494</v>
+        <v>0.3711199565907818</v>
       </c>
       <c r="C73">
-        <v>0.1122684145127236</v>
+        <v>-0.1211333891608163</v>
       </c>
       <c r="D73">
-        <v>-0.2779810874686405</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.0257813794291502</v>
+      </c>
+      <c r="E73">
+        <v>0.2126406587190801</v>
+      </c>
+      <c r="F73">
+        <v>-0.5482598748045712</v>
+      </c>
+      <c r="G73">
+        <v>-0.310711908853892</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.06354987680490529</v>
+        <v>0.1042887009589263</v>
       </c>
       <c r="C74">
-        <v>0.03555955646441245</v>
+        <v>-0.1100292576589497</v>
       </c>
       <c r="D74">
-        <v>-0.1593356386286359</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009640034596426168</v>
+      </c>
+      <c r="E74">
+        <v>-0.01819900186590509</v>
+      </c>
+      <c r="F74">
+        <v>0.06082210966932639</v>
+      </c>
+      <c r="G74">
+        <v>0.07177183147567323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1580514282948579</v>
+        <v>0.2466107518910444</v>
       </c>
       <c r="C75">
-        <v>0.0837316962151055</v>
+        <v>-0.1532328335687619</v>
       </c>
       <c r="D75">
-        <v>-0.2662045178045255</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03149240650975099</v>
+      </c>
+      <c r="E75">
+        <v>-0.09742940745582215</v>
+      </c>
+      <c r="F75">
+        <v>0.1488188337421561</v>
+      </c>
+      <c r="G75">
+        <v>-0.01698323576392821</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.06689602364839739</v>
+        <v>0.1152537081233167</v>
       </c>
       <c r="C76">
-        <v>0.04265895692021583</v>
+        <v>-0.1115040906047178</v>
       </c>
       <c r="D76">
-        <v>-0.1752704413288873</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01780715718709983</v>
+      </c>
+      <c r="E76">
+        <v>-0.04488943856311109</v>
+      </c>
+      <c r="F76">
+        <v>0.0865638357181978</v>
+      </c>
+      <c r="G76">
+        <v>0.05334642850335812</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.02684415209453593</v>
+        <v>0.07129859461735137</v>
       </c>
       <c r="C77">
-        <v>0.00278505274286224</v>
+        <v>-0.05641961686758843</v>
       </c>
       <c r="D77">
-        <v>-0.07611026752961129</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01055620346671624</v>
+      </c>
+      <c r="E77">
+        <v>0.05544391424256954</v>
+      </c>
+      <c r="F77">
+        <v>0.003149519116817942</v>
+      </c>
+      <c r="G77">
+        <v>0.07500437763214807</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.01880168835458256</v>
+        <v>0.04158126168675329</v>
       </c>
       <c r="C78">
-        <v>0.004635942059524545</v>
+        <v>-0.05141898540890972</v>
       </c>
       <c r="D78">
-        <v>-0.06375018357928301</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.007084434232389329</v>
+      </c>
+      <c r="E78">
+        <v>0.0421093939267501</v>
+      </c>
+      <c r="F78">
+        <v>-0.03070930030663101</v>
+      </c>
+      <c r="G78">
+        <v>0.1044229616718258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.000879535008888707</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0002849779989635021</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0003948893134814676</v>
+      </c>
+      <c r="E79">
+        <v>0.004527382924977135</v>
+      </c>
+      <c r="F79">
+        <v>-0.001094032390263581</v>
+      </c>
+      <c r="G79">
+        <v>0.00323878687181704</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03484751799674336</v>
+        <v>0.04176491110276129</v>
       </c>
       <c r="C80">
-        <v>0.002918268358978292</v>
+        <v>-0.05274426085586374</v>
       </c>
       <c r="D80">
-        <v>-0.07385302058423772</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01411192004740013</v>
+      </c>
+      <c r="E80">
+        <v>0.03142134558330802</v>
+      </c>
+      <c r="F80">
+        <v>-0.0006236294090145915</v>
+      </c>
+      <c r="G80">
+        <v>0.05274506836743192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.07865951415031489</v>
+        <v>0.1381356409557088</v>
       </c>
       <c r="C81">
-        <v>0.0417765243214868</v>
+        <v>-0.09766273006977508</v>
       </c>
       <c r="D81">
-        <v>-0.1480207911932719</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01557993503914731</v>
+      </c>
+      <c r="E81">
+        <v>-0.06121568713594665</v>
+      </c>
+      <c r="F81">
+        <v>0.1136635733323104</v>
+      </c>
+      <c r="G81">
+        <v>0.02430037067171532</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.007238180893579577</v>
+        <v>0.1473826530738512</v>
       </c>
       <c r="C82">
-        <v>0.003223646536279344</v>
+        <v>-0.08605677626199246</v>
       </c>
       <c r="D82">
-        <v>-0.009841600400365238</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.0132500935024081</v>
+      </c>
+      <c r="E82">
+        <v>-0.1359514605797724</v>
+      </c>
+      <c r="F82">
+        <v>0.04343673900720781</v>
+      </c>
+      <c r="G82">
+        <v>0.05748887794362166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01540772237872259</v>
+        <v>0.03422800282964295</v>
       </c>
       <c r="C83">
-        <v>0.002401852178025733</v>
+        <v>-0.03128442364204811</v>
       </c>
       <c r="D83">
-        <v>-0.02173125421812747</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006649618139514</v>
+      </c>
+      <c r="E83">
+        <v>0.03547428229389396</v>
+      </c>
+      <c r="F83">
+        <v>-0.02808047411577115</v>
+      </c>
+      <c r="G83">
+        <v>0.05912684244214747</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1565826877578594</v>
+        <v>0.2079751820663654</v>
       </c>
       <c r="C85">
-        <v>0.06969148429706261</v>
+        <v>-0.1480257601178595</v>
       </c>
       <c r="D85">
-        <v>-0.2709116590299703</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0172834194736247</v>
+      </c>
+      <c r="E85">
+        <v>-0.1174201493077763</v>
+      </c>
+      <c r="F85">
+        <v>0.08260637193388977</v>
+      </c>
+      <c r="G85">
+        <v>-0.05525771360564051</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009244062517167015</v>
+        <v>0.01312269809739378</v>
       </c>
       <c r="C86">
-        <v>-0.001478060475585889</v>
+        <v>-0.02574846237888263</v>
       </c>
       <c r="D86">
-        <v>-0.02737095659416212</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01198684491060614</v>
+      </c>
+      <c r="E86">
+        <v>0.05832566417610903</v>
+      </c>
+      <c r="F86">
+        <v>-0.009670429581303288</v>
+      </c>
+      <c r="G86">
+        <v>0.181674998035067</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.009944174809158832</v>
+        <v>0.0213916126277403</v>
       </c>
       <c r="C87">
-        <v>-0.01306061427386238</v>
+        <v>-0.01719239166007271</v>
       </c>
       <c r="D87">
-        <v>-0.02030558481774033</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01287934805667017</v>
+      </c>
+      <c r="E87">
+        <v>0.1008359590463904</v>
+      </c>
+      <c r="F87">
+        <v>0.01824763341218832</v>
+      </c>
+      <c r="G87">
+        <v>0.1235455502556488</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.04305890163952838</v>
+        <v>0.09223466454331165</v>
       </c>
       <c r="C88">
-        <v>-0.006250057750285185</v>
+        <v>-0.07201534233114104</v>
       </c>
       <c r="D88">
-        <v>-0.03636453564279026</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02187265621734352</v>
+      </c>
+      <c r="E88">
+        <v>-0.008533820193910854</v>
+      </c>
+      <c r="F88">
+        <v>0.02165192104466514</v>
+      </c>
+      <c r="G88">
+        <v>0.09645337424135249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.3291667470441904</v>
+        <v>0.234528039049096</v>
       </c>
       <c r="C89">
-        <v>0.1206763227422555</v>
+        <v>0.3644630879633208</v>
       </c>
       <c r="D89">
-        <v>0.2654000355039466</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0001812618335947276</v>
+      </c>
+      <c r="E89">
+        <v>-0.02601912164738255</v>
+      </c>
+      <c r="F89">
+        <v>0.01680783701016468</v>
+      </c>
+      <c r="G89">
+        <v>0.07760344037593178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2805429156102001</v>
+        <v>0.2122880919410742</v>
       </c>
       <c r="C90">
-        <v>0.1064553761379499</v>
+        <v>0.3155247277850334</v>
       </c>
       <c r="D90">
-        <v>0.2272127947876844</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004928100379840135</v>
+      </c>
+      <c r="E90">
+        <v>-0.006958267731049261</v>
+      </c>
+      <c r="F90">
+        <v>0.04827693907488006</v>
+      </c>
+      <c r="G90">
+        <v>0.04900594152572706</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1220899955951836</v>
+        <v>0.1849465307565954</v>
       </c>
       <c r="C91">
-        <v>0.06734471443533702</v>
+        <v>-0.1382572875598874</v>
       </c>
       <c r="D91">
-        <v>-0.1858042257008586</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02312451132598953</v>
+      </c>
+      <c r="E91">
+        <v>-0.0905732682076876</v>
+      </c>
+      <c r="F91">
+        <v>0.115269758997888</v>
+      </c>
+      <c r="G91">
+        <v>0.027964027854191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2507333686572264</v>
+        <v>0.1994978287635866</v>
       </c>
       <c r="C92">
-        <v>0.1307281027012525</v>
+        <v>0.2581038054529523</v>
       </c>
       <c r="D92">
-        <v>0.1496701576251718</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03912067335349048</v>
+      </c>
+      <c r="E92">
+        <v>0.01788743087634883</v>
+      </c>
+      <c r="F92">
+        <v>0.05836348010168264</v>
+      </c>
+      <c r="G92">
+        <v>0.09241788361989603</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.3028067419756557</v>
+        <v>0.234744580246171</v>
       </c>
       <c r="C93">
-        <v>0.1219388511691674</v>
+        <v>0.3100750766680777</v>
       </c>
       <c r="D93">
-        <v>0.191101604265715</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01113701581904866</v>
+      </c>
+      <c r="E93">
+        <v>0.003065773111673708</v>
+      </c>
+      <c r="F93">
+        <v>0.04136236834934676</v>
+      </c>
+      <c r="G93">
+        <v>0.06030969566535773</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1695932119623216</v>
+        <v>0.3198294510170614</v>
       </c>
       <c r="C94">
-        <v>0.06713772877666271</v>
+        <v>-0.1912738297762055</v>
       </c>
       <c r="D94">
-        <v>-0.2781177907864651</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02357545228362366</v>
+      </c>
+      <c r="E94">
+        <v>-0.3302502924430283</v>
+      </c>
+      <c r="F94">
+        <v>0.4191676772117787</v>
+      </c>
+      <c r="G94">
+        <v>-0.3871368569313958</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.02604129589059239</v>
+        <v>0.09522434273083283</v>
       </c>
       <c r="C95">
-        <v>0.02089657879367558</v>
+        <v>-0.08115261959746962</v>
       </c>
       <c r="D95">
-        <v>-0.1115133416962663</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009590118364979361</v>
+      </c>
+      <c r="E95">
+        <v>0.1073959234032002</v>
+      </c>
+      <c r="F95">
+        <v>-0.1570928732985122</v>
+      </c>
+      <c r="G95">
+        <v>0.01654994301961627</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1556070801570154</v>
+        <v>0.190621701491005</v>
       </c>
       <c r="C98">
-        <v>0.08067710565514878</v>
+        <v>-0.0475714068882985</v>
       </c>
       <c r="D98">
-        <v>-0.1138608055408791</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01059777396616233</v>
+      </c>
+      <c r="E98">
+        <v>0.1266277742734981</v>
+      </c>
+      <c r="F98">
+        <v>-0.2142430433283477</v>
+      </c>
+      <c r="G98">
+        <v>-0.02863710801566568</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.004506956057609123</v>
+        <v>0.009475657475006925</v>
       </c>
       <c r="C101">
-        <v>-0.00511464370819576</v>
+        <v>-0.0227928684552358</v>
       </c>
       <c r="D101">
-        <v>-0.01879594685853785</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009234980556188536</v>
+      </c>
+      <c r="E101">
+        <v>0.003050595438179502</v>
+      </c>
+      <c r="F101">
+        <v>0.01375266303246533</v>
+      </c>
+      <c r="G101">
+        <v>0.1020868296595797</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.08316880674156352</v>
+        <v>0.117111505644872</v>
       </c>
       <c r="C102">
-        <v>0.02948201984292005</v>
+        <v>-0.08323047893294605</v>
       </c>
       <c r="D102">
-        <v>-0.1298901280439309</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0001494900585501404</v>
+      </c>
+      <c r="E102">
+        <v>-0.04362807754299493</v>
+      </c>
+      <c r="F102">
+        <v>0.03075105985363684</v>
+      </c>
+      <c r="G102">
+        <v>0.01417859518894366</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.3775553095047213</v>
+        <v>0.02130991628477905</v>
       </c>
       <c r="C104">
-        <v>-0.9164730895870168</v>
+        <v>0.03014321792177489</v>
       </c>
       <c r="D104">
-        <v>0.006163969542018154</v>
+        <v>0.9872625731381773</v>
+      </c>
+      <c r="E104">
+        <v>-0.06752179881361142</v>
+      </c>
+      <c r="F104">
+        <v>0.02700254239312095</v>
+      </c>
+      <c r="G104">
+        <v>-0.0408178937593377</v>
       </c>
     </row>
   </sheetData>
